--- a/Web/test.xlsx
+++ b/Web/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Tracking-Object\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1A94A3-7926-4123-9148-2E5EF92397A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109B467-4DB4-4A16-9881-C6801EBD56DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2A53FF5-6C0A-424B-B65A-C1C55F28F0C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -47,40 +47,76 @@
     <t>state</t>
   </si>
   <si>
-    <t>stt</t>
-  </si>
-  <si>
-    <t>Xung</t>
-  </si>
-  <si>
-    <t>Cuongqw</t>
-  </si>
-  <si>
-    <t>Duy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ábh </t>
-  </si>
-  <si>
-    <t>Cường</t>
-  </si>
-  <si>
-    <t>CH gq</t>
-  </si>
-  <si>
-    <t>haha</t>
-  </si>
-  <si>
-    <t>hehe</t>
-  </si>
-  <si>
-    <t>aoufbaof</t>
-  </si>
-  <si>
-    <t>Ánh</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>Đinh Quốc Cường</t>
+  </si>
+  <si>
+    <t>Trần Thanh Duy</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Duy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Thị Ánh </t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Khôi</t>
+  </si>
+  <si>
+    <t>Trần Văn Cường</t>
+  </si>
+  <si>
+    <t>Đỗ Hoàng Phúc</t>
+  </si>
+  <si>
+    <t>Vũ Đức Trọng</t>
+  </si>
+  <si>
+    <t>Lâm Xuân Hùng</t>
+  </si>
+  <si>
+    <t>Đỗ Thanh Hùng</t>
+  </si>
+  <si>
+    <t>22/3/2024</t>
+  </si>
+  <si>
+    <t>29/3/2024</t>
+  </si>
+  <si>
+    <t>5/4/2024.</t>
+  </si>
+  <si>
+    <t>12/4/2024.</t>
+  </si>
+  <si>
+    <t>26/4/2024.</t>
+  </si>
+  <si>
+    <t>3/5/2024.</t>
+  </si>
+  <si>
+    <t>10/5/2024.</t>
+  </si>
+  <si>
+    <t>17/5/2024.</t>
+  </si>
+  <si>
+    <t>24/5/2024.</t>
+  </si>
+  <si>
+    <t>31/5/2024.</t>
+  </si>
+  <si>
+    <t>7/6/2024.</t>
+  </si>
+  <si>
+    <t>14/6/2024.</t>
+  </si>
+  <si>
+    <t>21/6/2024.</t>
+  </si>
+  <si>
+    <t>28/6/2024.</t>
   </si>
 </sst>
 </file>
@@ -116,8 +152,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,165 +490,1483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87064F2F-86D7-4DDD-9915-62F25DD8FBDD}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" customWidth="1"/>
+    <col min="29" max="29" width="13.44140625" customWidth="1"/>
+    <col min="33" max="33" width="11.33203125" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" customWidth="1"/>
+    <col min="38" max="38" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.6640625" customWidth="1"/>
+    <col min="42" max="42" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.44140625" customWidth="1"/>
+    <col min="46" max="46" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3">
+        <v>8</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM3">
+        <v>9</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ3">
+        <v>10</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU3">
+        <v>2</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY3">
+        <v>3</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>2</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>2</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>2</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>3</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>3</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>3</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>4</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>4</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>4</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>4</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>5</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>5</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>5</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>5</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>6</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>6</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>6</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>7</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>7</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>7</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>7</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>8</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>8</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>8</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>8</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>8</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>9</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>9</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>9</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>9</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>9</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>9</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>10</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>10</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>10</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>10</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC12">
         <v>0</v>
       </c>
     </row>
